--- a/biology/Zoologie/Janatella/Janatella.xlsx
+++ b/biology/Zoologie/Janatella/Janatella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janatella est un genre de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Nymphalinae, de la tribu des Melitaeini.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Janatella leur a été donné par Lionel G. Higgins en 1981.
 </t>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Janatella fellula (Schaus, 1902); présent en Équateur et en Colombie.
-Janatella hera (Cramer, [1779]); présent en Guyane et au Surinam.
+Janatella hera (Cramer, ); présent en Guyane et au Surinam.
 Janatella leucodesma (C. &amp; R. Felder, 1861); présent au Nicaragua,  à Panama, au Venezuela, en Colombie, au Venezuela et à Trinité-et-Tobago.</t>
         </is>
       </c>
